--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="RevokeSingleRecord" sheetId="10" r:id="rId10"/>
     <sheet name="Editregistry" sheetId="11" r:id="rId11"/>
     <sheet name="Archiveregistry" sheetId="12" r:id="rId12"/>
+    <sheet name="Bulkdownload" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -184,10 +185,13 @@
     <t>Testspacename3edit</t>
   </si>
   <si>
-    <t>Archiveregistry</t>
-  </si>
-  <si>
-    <t>17/10/2024 12:18 pm</t>
+    <t>Bulkdownload</t>
+  </si>
+  <si>
+    <t>24/10/2024 10:17 am</t>
+  </si>
+  <si>
+    <t>24/10/2024 10:21 am</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1371,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>7</v>
@@ -1453,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1473,6 +1477,43 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.0"/>
+    <col min="2" max="2" customWidth="true" width="16.2734375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1520,8 +1561,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="Editregistry" sheetId="11" r:id="rId11"/>
     <sheet name="Archiveregistry" sheetId="12" r:id="rId12"/>
     <sheet name="Bulkdownload" sheetId="13" r:id="rId13"/>
+    <sheet name="Bulkdownloadwithoutbkgd" sheetId="14" r:id="rId14"/>
+    <sheet name="Bulkhashmarkpng" sheetId="15" r:id="rId15"/>
+    <sheet name="Bulkhashmarksvg" sheetId="16" r:id="rId16"/>
+    <sheet name="LogoutTC" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -59,7 +63,7 @@
     <t>LoginTC</t>
   </si>
   <si>
-    <t>26/09/2024 03:12 pm</t>
+    <t>13/11/2024 02:16 pm</t>
   </si>
   <si>
     <t>Passed</t>
@@ -113,10 +117,37 @@
     <t>15/10/2024 01:09 pm</t>
   </si>
   <si>
+    <t>Bulkdownload</t>
+  </si>
+  <si>
+    <t>24/10/2024 10:21 am</t>
+  </si>
+  <si>
+    <t>Bulkdownloadwithoutbkgd</t>
+  </si>
+  <si>
+    <t>25/10/2024 12:09 pm</t>
+  </si>
+  <si>
+    <t>Bulkhashmarkpng</t>
+  </si>
+  <si>
+    <t>05/11/2024 01:44 pm</t>
+  </si>
+  <si>
+    <t>LogoutTC</t>
+  </si>
+  <si>
+    <t>12/11/2024 01:40 pm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>sreepriya@dhiway.com</t>
+    <t>sreepriya+test@dhiway.com</t>
   </si>
   <si>
     <t>spacename</t>
@@ -152,7 +183,7 @@
     <t>Testorg-Sree</t>
   </si>
   <si>
-    <t>sreepriya++test888@dhiway.com</t>
+    <t>sreepriya++test88@dhiway.com</t>
   </si>
   <si>
     <t>spacedescription</t>
@@ -185,13 +216,7 @@
     <t>Testspacename3edit</t>
   </si>
   <si>
-    <t>Bulkdownload</t>
-  </si>
-  <si>
-    <t>24/10/2024 10:17 am</t>
-  </si>
-  <si>
-    <t>24/10/2024 10:21 am</t>
+    <t>13/11/2024 03:29 pm</t>
   </si>
 </sst>
 </file>
@@ -226,33 +251,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF050F14"/>
       <name val="DM-Sans-Medium"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -848,18 +873,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -867,24 +897,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,148 +1262,184 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="24.4765625"/>
-    <col min="2" max="2" customWidth="true" style="2" width="20.4296875"/>
-    <col min="3" max="5" customWidth="true" style="2" width="13.0078125"/>
+    <col min="1" max="1" customWidth="true" style="1" width="24.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="20.4296875"/>
+    <col min="3" max="5" customWidth="true" style="4" width="13.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:4">
+    <row r="6" ht="18.75" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s" s="2">
+    <row r="11" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1385,139 +1450,303 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="9.765625"/>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="9.71875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" style="1" width="12.4296875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" style="1" width="12.4296875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.0"/>
-    <col min="2" max="2" customWidth="true" width="16.2734375"/>
+    <col min="1" max="1" customWidth="true" style="1" width="22.0078125"/>
+    <col min="2" max="2" customWidth="true" style="4" width="16.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1527,26 +1756,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="30.578125"/>
+    <col min="1" max="1" customWidth="true" style="1" width="30.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1561,43 +1791,43 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="13.0078125"/>
-    <col min="2" max="2" customWidth="true" style="2" width="13.0078125"/>
-    <col min="3" max="4" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.0078125"/>
+    <col min="2" max="2" customWidth="true" style="4" width="13.0078125"/>
+    <col min="3" max="4" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1614,41 +1844,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
     <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
-    <col min="3" max="3" customWidth="true" style="2" width="12.578125"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.0078125"/>
+    <col min="3" max="3" customWidth="true" style="4" width="12.578125"/>
+    <col min="4" max="4" customWidth="true" style="4" width="27.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
+      <c r="A1" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+      <c r="A2" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1665,48 +1895,48 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="5" width="18.2890625"/>
-    <col min="4" max="4" customWidth="true" style="5" width="12.2890625"/>
-    <col min="5" max="5" customWidth="true" style="10" width="30.1484375"/>
+    <col min="1" max="3" customWidth="true" style="1" width="18.2890625"/>
+    <col min="4" max="4" customWidth="true" style="1" width="12.2890625"/>
+    <col min="5" max="5" customWidth="true" style="6" width="30.1484375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>40</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1723,29 +1953,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1762,29 +1992,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1795,89 +2025,98 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.5703125"/>
-    <col min="4" max="4" customWidth="true" width="17.3203125"/>
-    <col min="5" max="5" customWidth="true" width="16.53125"/>
+    <col min="1" max="2" customWidth="true" style="1" width="12.4296875"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.578125"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.2890625"/>
+    <col min="5" max="5" customWidth="true" style="6" width="16.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>40</v>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="30240" windowHeight="12220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Bulkhashmarkpng" sheetId="15" r:id="rId15"/>
     <sheet name="Bulkhashmarksvg" sheetId="16" r:id="rId16"/>
     <sheet name="LogoutTC" sheetId="17" r:id="rId17"/>
+    <sheet name="NewDownloadpdfwithbkgndIssued" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -63,7 +64,7 @@
     <t>LoginTC</t>
   </si>
   <si>
-    <t>13/11/2024 02:16 pm</t>
+    <t>26/11/2024 04:24 pm</t>
   </si>
   <si>
     <t>Passed</t>
@@ -78,19 +79,19 @@
     <t>CreateRecord</t>
   </si>
   <si>
-    <t>02/09/2024 03:13 pm</t>
+    <t>26/11/2024 04:26 pm</t>
   </si>
   <si>
     <t>CreateSpace</t>
   </si>
   <si>
-    <t>27/09/2024 12:18 pm</t>
+    <t>26/11/2024 04:25 pm</t>
   </si>
   <si>
     <t>Bulkupload</t>
   </si>
   <si>
-    <t>04/09/2024 02:18 pm</t>
+    <t>26/11/2024 04:35 pm</t>
   </si>
   <si>
     <t>CreateSpacewithCertificate</t>
@@ -102,7 +103,7 @@
     <t>IssueAll</t>
   </si>
   <si>
-    <t>07/10/2024 12:49 pm</t>
+    <t>21/11/2024 11:10 am</t>
   </si>
   <si>
     <t>RevokeSingleRecord</t>
@@ -138,12 +139,18 @@
     <t>LogoutTC</t>
   </si>
   <si>
-    <t>12/11/2024 01:40 pm</t>
+    <t>18/11/2024 05:34 pm</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Bulkhashmarksvg</t>
+  </si>
+  <si>
+    <t>20/11/2024 02:44 pm</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -216,7 +223,16 @@
     <t>Testspacename3edit</t>
   </si>
   <si>
-    <t>13/11/2024 03:29 pm</t>
+    <t>26/11/2024 10:19 pm</t>
+  </si>
+  <si>
+    <t>26/11/2024 10:20 pm</t>
+  </si>
+  <si>
+    <t>26/11/2024 10:21 pm</t>
+  </si>
+  <si>
+    <t>26/11/2024 10:23 pm</t>
   </si>
 </sst>
 </file>
@@ -875,16 +891,16 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1262,7 +1278,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,73 +1286,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="24.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="20.4296875"/>
-    <col min="3" max="5" customWidth="true" style="4" width="13.0078125"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="20.4296875"/>
+    <col min="3" max="5" customWidth="true" style="2" width="13.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1344,10 +1360,10 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1355,10 +1371,10 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1366,10 +1382,10 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1377,10 +1393,10 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1388,10 +1404,10 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1399,10 +1415,10 @@
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1410,10 +1426,10 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1421,10 +1437,10 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1432,14 +1448,25 @@
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1461,24 +1488,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="9.71875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="9.71875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1500,23 +1527,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="12.4296875"/>
+    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1538,23 +1565,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="12.4296875"/>
+    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1576,24 +1603,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="22.0078125"/>
-    <col min="2" max="2" customWidth="true" style="4" width="16.2890625"/>
+    <col min="1" max="1" customWidth="true" style="4" width="22.0078125"/>
+    <col min="2" max="2" customWidth="true" style="2" width="16.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1615,24 +1642,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1649,29 +1676,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1693,24 +1720,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1726,27 +1753,60 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1764,17 +1824,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="30.578125"/>
+    <col min="1" max="1" customWidth="true" style="4" width="30.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="14"/>
     </row>
@@ -1797,37 +1857,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.0078125"/>
-    <col min="2" max="2" customWidth="true" style="4" width="13.0078125"/>
-    <col min="3" max="4" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="13.0078125"/>
+    <col min="2" max="2" customWidth="true" style="2" width="13.0078125"/>
+    <col min="3" max="4" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1849,36 +1909,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="2" width="12.4296875"/>
     <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
-    <col min="3" max="3" customWidth="true" style="4" width="12.578125"/>
-    <col min="4" max="4" customWidth="true" style="4" width="27.0078125"/>
+    <col min="3" max="3" customWidth="true" style="2" width="12.578125"/>
+    <col min="4" max="4" customWidth="true" style="2" width="27.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>41</v>
+      <c r="A1" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>44</v>
+      <c r="A2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1900,43 +1960,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="1" width="18.2890625"/>
-    <col min="4" max="4" customWidth="true" style="1" width="12.2890625"/>
+    <col min="1" max="3" customWidth="true" style="4" width="18.2890625"/>
+    <col min="4" max="4" customWidth="true" style="4" width="12.2890625"/>
     <col min="5" max="5" customWidth="true" style="6" width="30.1484375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1952,30 +2012,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1997,24 +2057,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2036,24 +2096,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2075,44 +2135,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="12.4296875"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.578125"/>
-    <col min="4" max="4" customWidth="true" style="1" width="17.2890625"/>
+    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="3" max="3" customWidth="true" style="4" width="17.578125"/>
+    <col min="4" max="4" customWidth="true" style="4" width="17.2890625"/>
     <col min="5" max="5" customWidth="true" style="6" width="16.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12220" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Bulkhashmarksvg" sheetId="16" r:id="rId16"/>
     <sheet name="LogoutTC" sheetId="17" r:id="rId17"/>
     <sheet name="NewDownloadpdfwithbkgndIssued" sheetId="18" r:id="rId18"/>
+    <sheet name="Activitylog" sheetId="19" r:id="rId19"/>
+    <sheet name="SummaryDownload" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -64,7 +66,7 @@
     <t>LoginTC</t>
   </si>
   <si>
-    <t>26/11/2024 04:24 pm</t>
+    <t>28/11/2024 05:41 pm</t>
   </si>
   <si>
     <t>Passed</t>
@@ -79,19 +81,19 @@
     <t>CreateRecord</t>
   </si>
   <si>
-    <t>26/11/2024 04:26 pm</t>
+    <t>28/11/2024 05:43 pm</t>
   </si>
   <si>
     <t>CreateSpace</t>
   </si>
   <si>
-    <t>26/11/2024 04:25 pm</t>
+    <t>28/11/2024 05:42 pm</t>
   </si>
   <si>
     <t>Bulkupload</t>
   </si>
   <si>
-    <t>26/11/2024 04:35 pm</t>
+    <t>26/11/2024 10:23 pm</t>
   </si>
   <si>
     <t>CreateSpacewithCertificate</t>
@@ -151,6 +153,18 @@
     <t>20/11/2024 02:44 pm</t>
   </si>
   <si>
+    <t>NewDownloadpdfwithbkgndIssued</t>
+  </si>
+  <si>
+    <t>27/11/2024 11:46 am</t>
+  </si>
+  <si>
+    <t>Activitylog</t>
+  </si>
+  <si>
+    <t>03/12/2024 12:09 pm</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -221,18 +235,6 @@
   </si>
   <si>
     <t>Testspacename3edit</t>
-  </si>
-  <si>
-    <t>26/11/2024 10:19 pm</t>
-  </si>
-  <si>
-    <t>26/11/2024 10:20 pm</t>
-  </si>
-  <si>
-    <t>26/11/2024 10:21 pm</t>
-  </si>
-  <si>
-    <t>26/11/2024 10:23 pm</t>
   </si>
 </sst>
 </file>
@@ -889,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1278,7 +1280,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,9 +1288,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="20.4296875"/>
-    <col min="3" max="5" customWidth="true" style="2" width="13.0078125"/>
+    <col min="1" max="1" width="24.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.4296875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="13.0078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
@@ -1314,7 +1316,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1338,7 +1340,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1350,7 +1352,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1361,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1466,6 +1468,28 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1488,24 +1512,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="9.71875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.71875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1527,23 +1551,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1565,23 +1589,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1603,24 +1627,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="22.0078125"/>
-    <col min="2" max="2" customWidth="true" style="2" width="16.2890625"/>
+    <col min="1" max="1" width="22.0078125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.2890625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1642,24 +1666,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1681,24 +1705,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1720,24 +1744,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1759,17 +1783,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1784,25 +1808,58 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1824,22 +1881,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="30.578125"/>
+    <col min="1" max="1" width="30.578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1857,37 +1947,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="13.0078125"/>
-    <col min="2" max="2" customWidth="true" style="2" width="13.0078125"/>
-    <col min="3" max="4" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="13.0078125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.4296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1909,36 +1999,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
-    <col min="3" max="3" customWidth="true" style="2" width="12.578125"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.0078125"/>
+    <col min="1" max="1" width="12.4296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.0078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1960,43 +2050,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="4" width="18.2890625"/>
-    <col min="4" max="4" customWidth="true" style="4" width="12.2890625"/>
-    <col min="5" max="5" customWidth="true" style="6" width="30.1484375"/>
+    <col min="1" max="3" width="18.2890625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.2890625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.1484375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2012,30 +2102,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2057,24 +2147,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2096,24 +2186,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2135,44 +2225,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
-    <col min="3" max="3" customWidth="true" style="4" width="17.578125"/>
-    <col min="4" max="4" customWidth="true" style="4" width="17.2890625"/>
-    <col min="5" max="5" customWidth="true" style="6" width="16.578125"/>
+    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.2890625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12820" firstSheet="15" activeTab="19"/>
+    <workbookView windowWidth="30240" windowHeight="12820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="NewDownloadpdfwithbkgndIssued" sheetId="18" r:id="rId18"/>
     <sheet name="Activitylog" sheetId="19" r:id="rId19"/>
     <sheet name="SummaryDownload" sheetId="20" r:id="rId20"/>
+    <sheet name="SettingsTC" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -93,7 +94,7 @@
     <t>Bulkupload</t>
   </si>
   <si>
-    <t>26/11/2024 10:23 pm</t>
+    <t>12/12/2024 12:48 pm</t>
   </si>
   <si>
     <t>CreateSpacewithCertificate</t>
@@ -141,7 +142,7 @@
     <t>LogoutTC</t>
   </si>
   <si>
-    <t>18/11/2024 05:34 pm</t>
+    <t>10/12/2024 01:18 pm</t>
   </si>
   <si>
     <t/>
@@ -180,54 +181,54 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Testspacename3</t>
+  </si>
+  <si>
+    <t>Sree Test</t>
+  </si>
+  <si>
+    <t>sreepriya+71@dhiway.com</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>orgname</t>
+  </si>
+  <si>
+    <t>Sree</t>
+  </si>
+  <si>
+    <t>Testorg-Sree</t>
+  </si>
+  <si>
+    <t>sreepriya++test88@dhiway.com</t>
+  </si>
+  <si>
+    <t>spacedescription</t>
+  </si>
+  <si>
+    <t>templatetype</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>Test description text box</t>
+  </si>
+  <si>
+    <t>V3 Template</t>
+  </si>
+  <si>
+    <t>sept17-2-sree-afternoon</t>
+  </si>
+  <si>
     <t>Newreg</t>
   </si>
   <si>
-    <t>Sree Test</t>
-  </si>
-  <si>
-    <t>sreepriya+1@dhiway.com</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>mob</t>
-  </si>
-  <si>
-    <t>orgname</t>
-  </si>
-  <si>
-    <t>Sree</t>
-  </si>
-  <si>
-    <t>Testorg-Sree</t>
-  </si>
-  <si>
-    <t>sreepriya++test88@dhiway.com</t>
-  </si>
-  <si>
-    <t>spacedescription</t>
-  </si>
-  <si>
-    <t>templatetype</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>Testspacename3</t>
-  </si>
-  <si>
-    <t>Test description text box</t>
-  </si>
-  <si>
-    <t>V3 Template</t>
-  </si>
-  <si>
-    <t>sept17-2-sree-afternoon</t>
-  </si>
-  <si>
     <t>Certificate</t>
   </si>
   <si>
@@ -235,6 +236,9 @@
   </si>
   <si>
     <t>Testspacename3edit</t>
+  </si>
+  <si>
+    <t>13/12/2024 10:37 am</t>
   </si>
 </sst>
 </file>
@@ -891,15 +895,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1288,9 +1292,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.4296875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="13.0078125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="20.4296875"/>
+    <col min="3" max="5" customWidth="true" style="3" width="13.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
@@ -1315,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1327,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1339,10 +1343,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1351,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1362,10 +1366,10 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1373,10 +1377,10 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1384,10 +1388,10 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1395,10 +1399,10 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1406,10 +1410,10 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1417,10 +1421,10 @@
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1428,10 +1432,10 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1439,10 +1443,10 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1450,10 +1454,10 @@
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1464,10 +1468,10 @@
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1475,10 +1479,10 @@
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1486,10 +1490,10 @@
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1512,24 +1516,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.71875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="9.71875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1555,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
@@ -1563,11 +1567,11 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1593,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
@@ -1601,7 +1605,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1627,24 +1631,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.0078125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.2890625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="22.0078125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1666,24 +1670,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1705,24 +1709,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1744,24 +1748,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1778,12 +1782,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
@@ -1792,7 +1796,7 @@
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1817,16 +1821,16 @@
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1850,16 +1854,16 @@
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1876,12 +1880,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.578125" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="30.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
@@ -1890,7 +1894,7 @@
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="14"/>
@@ -1906,7 +1910,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1916,16 +1920,43 @@
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1942,41 +1973,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.0078125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="13.0078125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.0078125"/>
+    <col min="3" max="4" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1999,35 +2030,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.0078125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
+    <col min="3" max="3" customWidth="true" style="3" width="12.578125"/>
+    <col min="4" max="4" customWidth="true" style="3" width="27.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2044,15 +2075,15 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="18.2890625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.2890625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.1484375" style="6" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" style="4" width="18.2890625"/>
+    <col min="4" max="4" customWidth="true" style="4" width="12.2890625"/>
+    <col min="5" max="5" customWidth="true" style="6" width="30.1484375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
@@ -2073,20 +2104,20 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2108,24 +2139,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.796875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2147,24 +2178,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2186,24 +2217,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2225,10 +2256,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.2890625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.578125" style="6" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="3" max="3" customWidth="true" style="4" width="17.578125"/>
+    <col min="4" max="4" customWidth="true" style="4" width="17.2890625"/>
+    <col min="5" max="5" customWidth="true" style="6" width="16.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
@@ -2249,14 +2280,14 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>60</v>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>email</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>13/12/2024 11:35 am</t>
+  </si>
+  <si>
+    <t>13/12/2024 11:37 am</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12820" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="12820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -82,7 +82,7 @@
     <t>CreateRecord</t>
   </si>
   <si>
-    <t>28/11/2024 05:43 pm</t>
+    <t>13/12/2024 10:37 am</t>
   </si>
   <si>
     <t>CreateSpace</t>
@@ -145,9 +145,6 @@
     <t>10/12/2024 01:18 pm</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Bulkhashmarksvg</t>
   </si>
   <si>
@@ -181,42 +178,45 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Testspacename3edited</t>
+  </si>
+  <si>
+    <t>Sree Test</t>
+  </si>
+  <si>
+    <t>sreepriya+71@dhiway.com</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>orgname</t>
+  </si>
+  <si>
+    <t>Sree</t>
+  </si>
+  <si>
+    <t>Testorg-Sree</t>
+  </si>
+  <si>
+    <t>sreepriya++test88@dhiway.com</t>
+  </si>
+  <si>
+    <t>spacedescription</t>
+  </si>
+  <si>
+    <t>templatetype</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
     <t>Testspacename3</t>
   </si>
   <si>
-    <t>Sree Test</t>
-  </si>
-  <si>
-    <t>sreepriya+71@dhiway.com</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>mob</t>
-  </si>
-  <si>
-    <t>orgname</t>
-  </si>
-  <si>
-    <t>Sree</t>
-  </si>
-  <si>
-    <t>Testorg-Sree</t>
-  </si>
-  <si>
-    <t>sreepriya++test88@dhiway.com</t>
-  </si>
-  <si>
-    <t>spacedescription</t>
-  </si>
-  <si>
-    <t>templatetype</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
     <t>Test description text box</t>
   </si>
   <si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Testspacename3edit</t>
-  </si>
-  <si>
-    <t>13/12/2024 10:37 am</t>
   </si>
 </sst>
 </file>
@@ -251,7 +248,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +271,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF050F14"/>
       <name val="DM-Sans-Medium"/>
       <charset val="134"/>
@@ -298,9 +301,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -750,28 +760,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,123 +781,135 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -904,38 +917,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,208 +1306,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="20.4296875"/>
-    <col min="3" max="5" customWidth="true" style="3" width="13.0078125"/>
+    <col min="1" max="1" width="24.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4296875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="13.0078125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+    <row r="14" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="15" t="s">
+    </row>
+    <row r="15" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="17" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1511,28 +1522,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="9.71875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.71875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1550,28 +1561,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.859375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1588,27 +1600,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1626,28 +1638,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="22.0078125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="16.2890625"/>
+    <col min="1" max="1" width="22.0078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1665,28 +1677,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1704,28 +1716,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1743,28 +1755,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1787,17 +1799,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1808,66 +1820,78 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1880,24 +1904,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="30.578125"/>
+    <col min="1" max="1" width="30.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,60 +1932,71 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1972,43 +2008,44 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="13.0078125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="13.0078125"/>
-    <col min="3" max="4" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="13.0078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.71875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.2890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2025,41 +2062,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
-    <col min="3" max="3" customWidth="true" style="3" width="12.578125"/>
-    <col min="4" max="4" customWidth="true" style="3" width="27.0078125"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.0078125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2075,48 +2112,48 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="4" width="18.2890625"/>
-    <col min="4" max="4" customWidth="true" style="4" width="12.2890625"/>
-    <col min="5" max="5" customWidth="true" style="6" width="30.1484375"/>
+    <col min="1" max="3" width="18.2890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.2890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1484375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2134,29 +2171,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="13.796875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.859375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2173,28 +2210,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2212,28 +2249,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2251,48 +2288,48 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
-    <col min="3" max="3" customWidth="true" style="4" width="17.578125"/>
-    <col min="4" max="4" customWidth="true" style="4" width="17.2890625"/>
-    <col min="5" max="5" customWidth="true" style="6" width="16.578125"/>
+    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>61</v>
       </c>
     </row>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12820" activeTab="2"/>
+    <workbookView windowWidth="21440" windowHeight="7440" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Activitylog" sheetId="19" r:id="rId19"/>
     <sheet name="SummaryDownload" sheetId="20" r:id="rId20"/>
     <sheet name="SettingsTC" sheetId="21" r:id="rId21"/>
+    <sheet name="ReshareRecord" sheetId="22" r:id="rId22"/>
+    <sheet name="BulkEdit" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -118,7 +120,7 @@
     <t>Editregistry</t>
   </si>
   <si>
-    <t>15/10/2024 01:09 pm</t>
+    <t>19/12/2024 11:32 am</t>
   </si>
   <si>
     <t>Bulkdownload</t>
@@ -163,6 +165,12 @@
     <t>03/12/2024 12:09 pm</t>
   </si>
   <si>
+    <t>ReshareRecord</t>
+  </si>
+  <si>
+    <t>16/12/2024 11:51 am</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -236,6 +244,12 @@
   </si>
   <si>
     <t>Testspacename3edit</t>
+  </si>
+  <si>
+    <t>BulkEdit</t>
+  </si>
+  <si>
+    <t>19/12/2024 04:57 pm</t>
   </si>
 </sst>
 </file>
@@ -248,7 +262,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +277,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -271,7 +291,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -282,18 +308,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -304,13 +318,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -760,177 +767,177 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1298,7 +1305,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,205 +1313,227 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.4296875" style="4" customWidth="1"/>
-    <col min="3" max="5" width="13.0078125" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="24.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="20.4296875"/>
+    <col min="3" max="5" customWidth="true" style="5" width="13.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s" s="5">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1527,24 +1556,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.71875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="9.71875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1566,24 +1595,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.859375" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="18.859375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1605,23 +1634,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1643,24 +1672,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.0078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.2890625" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="22.0078125"/>
+    <col min="2" max="2" customWidth="true" style="5" width="16.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1682,24 +1711,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1721,24 +1750,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1760,24 +1789,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1799,17 +1828,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
+      <c r="A1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1826,29 +1855,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1870,24 +1899,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1909,18 +1938,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="30.578125"/>
+    <col min="2" max="2" customWidth="true" style="12" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
+      <c r="A1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="15"/>
     </row>
@@ -1943,24 +1972,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1982,21 +2011,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
+      <c r="A1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2008,44 +2103,44 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.0078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.71875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.2890625" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="13.0078125"/>
+    <col min="2" max="2" customWidth="true" style="6" width="27.71875"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.4296875"/>
+    <col min="4" max="4" customWidth="true" style="5" width="25.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2067,36 +2162,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.0078125" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="12" width="11.578125"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.578125"/>
+    <col min="4" max="4" customWidth="true" style="5" width="27.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
+      <c r="A1" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>49</v>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2118,43 +2213,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="18.2890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.2890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1484375" style="7" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" style="6" width="18.2890625"/>
+    <col min="4" max="4" customWidth="true" style="6" width="12.2890625"/>
+    <col min="5" max="5" customWidth="true" style="9" width="30.1484375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="E2" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2176,24 +2271,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.859375" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="29.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2215,24 +2310,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2254,24 +2349,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="5" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2293,44 +2388,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.578125" style="7" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="3" max="3" customWidth="true" style="6" width="17.578125"/>
+    <col min="4" max="4" customWidth="true" style="6" width="17.2890625"/>
+    <col min="5" max="5" customWidth="true" style="9" width="16.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>53</v>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -290,15 +290,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,14 +373,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +920,7 @@
       <c r="E17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="6"/>
@@ -936,7 +933,7 @@
       <c r="E18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="6"/>
@@ -1410,7 +1407,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,12 +1443,12 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="46.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13020" firstSheet="19" activeTab="24"/>
+    <workbookView windowWidth="27860" windowHeight="12420" firstSheet="21" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="BulkEdit" sheetId="23" r:id="rId23"/>
     <sheet name="EditSchema" sheetId="24" r:id="rId24"/>
     <sheet name="CreateSchema" sheetId="25" r:id="rId25"/>
+    <sheet name="CreateDesign" sheetId="26" r:id="rId26"/>
+    <sheet name="EditDesign" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -71,7 +73,7 @@
     <t>LoginTC</t>
   </si>
   <si>
-    <t>28/11/2024 05:41 pm</t>
+    <t>21/01/2025 10:47 am</t>
   </si>
   <si>
     <t>Passed</t>
@@ -179,6 +181,27 @@
     <t>19/12/2024 04:57 pm</t>
   </si>
   <si>
+    <t>CreateSchema</t>
+  </si>
+  <si>
+    <t>21/01/2025 10:45 am</t>
+  </si>
+  <si>
+    <t>TestCaseFailed</t>
+  </si>
+  <si>
+    <t>EditSchema</t>
+  </si>
+  <si>
+    <t>21/01/2025 10:48 am</t>
+  </si>
+  <si>
+    <t>CreateDesign</t>
+  </si>
+  <si>
+    <t>29/01/2025 01:33 pm</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -194,54 +217,57 @@
     <t>Email</t>
   </si>
   <si>
+    <t xml:space="preserve">Testspacename3edited </t>
+  </si>
+  <si>
+    <t>Sree Test</t>
+  </si>
+  <si>
+    <t>sreepriya+71@dhiway.com</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>orgname</t>
+  </si>
+  <si>
+    <t>Sree</t>
+  </si>
+  <si>
+    <t>Testorg-Sree</t>
+  </si>
+  <si>
+    <t>sreepriya++test88@dhiway.com</t>
+  </si>
+  <si>
+    <t>spacedescription</t>
+  </si>
+  <si>
+    <t>templatetype</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>Testspacename3</t>
+  </si>
+  <si>
+    <t>Test description text box</t>
+  </si>
+  <si>
+    <t>V3 Template</t>
+  </si>
+  <si>
+    <t>sept17-2-sree-afternoon</t>
+  </si>
+  <si>
     <t>Testspacename3edited</t>
   </si>
   <si>
-    <t>Sree Test</t>
-  </si>
-  <si>
-    <t>sreepriya+71@dhiway.com</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>mob</t>
-  </si>
-  <si>
-    <t>orgname</t>
-  </si>
-  <si>
-    <t>Sree</t>
-  </si>
-  <si>
-    <t>Testorg-Sree</t>
-  </si>
-  <si>
-    <t>sreepriya++test88@dhiway.com</t>
-  </si>
-  <si>
-    <t>spacedescription</t>
-  </si>
-  <si>
-    <t>templatetype</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>Testspacename3</t>
-  </si>
-  <si>
-    <t>Test description text box</t>
-  </si>
-  <si>
-    <t>V3 Template</t>
-  </si>
-  <si>
-    <t>sept17-2-sree-afternoon</t>
-  </si>
-  <si>
     <t>Newreg</t>
   </si>
   <si>
@@ -251,7 +277,19 @@
     <t>Check -june20</t>
   </si>
   <si>
+    <t>Testspacename</t>
+  </si>
+  <si>
     <t>Testspacename3edit</t>
+  </si>
+  <si>
+    <t>EditDesign</t>
+  </si>
+  <si>
+    <t>11/02/2025 12:00 pm</t>
+  </si>
+  <si>
+    <t>11/02/2025 12:03 pm</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1336,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,9 +1344,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.4296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.0078125" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="24.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="20.4296875"/>
+    <col min="3" max="5" customWidth="true" style="6" width="13.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
@@ -1527,6 +1565,53 @@
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1549,24 +1634,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.71875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="9.71875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1583,29 +1668,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.859375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="18.859375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1627,23 +1712,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="3" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1665,24 +1750,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.0078125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.2890625" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="22.0078125"/>
+    <col min="2" max="2" customWidth="true" style="6" width="16.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1704,24 +1789,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1743,24 +1828,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1782,24 +1867,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1821,17 +1906,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1853,24 +1938,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1892,24 +1977,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1931,19 +2016,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="30.578125"/>
+    <col min="2" max="2" customWidth="true" style="11" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14"/>
     </row>
@@ -1966,24 +2051,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2005,17 +2090,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2037,24 +2122,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2076,24 +2161,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.859375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="46.859375"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2115,12 +2200,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2219,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2142,12 +2227,66 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2164,43 +2303,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.0078125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.71875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.4296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.2890625" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.0078125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="27.71875"/>
+    <col min="3" max="3" customWidth="true" style="6" width="12.4296875"/>
+    <col min="4" max="4" customWidth="true" style="6" width="25.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2222,36 +2361,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.0078125" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
+    <col min="3" max="3" customWidth="true" style="6" width="12.578125"/>
+    <col min="4" max="4" customWidth="true" style="6" width="27.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2273,43 +2412,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="18.2890625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.2890625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.1484375" style="8" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" style="3" width="18.2890625"/>
+    <col min="4" max="4" customWidth="true" style="3" width="12.2890625"/>
+    <col min="5" max="5" customWidth="true" style="8" width="30.1484375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2331,24 +2470,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.578125" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="29.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2370,24 +2509,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2409,24 +2548,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2448,44 +2587,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.2890625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.578125" style="8" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="3" max="3" customWidth="true" style="3" width="17.578125"/>
+    <col min="4" max="4" customWidth="true" style="3" width="17.2890625"/>
+    <col min="5" max="5" customWidth="true" style="8" width="16.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="12420" firstSheet="21" activeTab="26"/>
+    <workbookView windowWidth="27860" windowHeight="12420" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -73,7 +73,7 @@
     <t>LoginTC</t>
   </si>
   <si>
-    <t>21/01/2025 10:47 am</t>
+    <t>13/02/2025 10:59 am</t>
   </si>
   <si>
     <t>Passed</t>
@@ -184,7 +184,7 @@
     <t>CreateSchema</t>
   </si>
   <si>
-    <t>21/01/2025 10:45 am</t>
+    <t>12/02/2025 03:10 pm</t>
   </si>
   <si>
     <t>TestCaseFailed</t>
@@ -193,13 +193,19 @@
     <t>EditSchema</t>
   </si>
   <si>
-    <t>21/01/2025 10:48 am</t>
+    <t>13/02/2025 11:00 am</t>
   </si>
   <si>
     <t>CreateDesign</t>
   </si>
   <si>
-    <t>29/01/2025 01:33 pm</t>
+    <t>12/02/2025 04:11 pm</t>
+  </si>
+  <si>
+    <t>EditDesign</t>
+  </si>
+  <si>
+    <t>11/02/2025 12:03 pm</t>
   </si>
   <si>
     <t>email</t>
@@ -217,7 +223,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Testspacename3edited </t>
+    <t>Test Space Creation</t>
   </si>
   <si>
     <t>Sree Test</t>
@@ -253,9 +259,6 @@
     <t>design</t>
   </si>
   <si>
-    <t>Testspacename3</t>
-  </si>
-  <si>
     <t>Test description text box</t>
   </si>
   <si>
@@ -265,31 +268,10 @@
     <t>sept17-2-sree-afternoon</t>
   </si>
   <si>
-    <t>Testspacename3edited</t>
-  </si>
-  <si>
-    <t>Newreg</t>
-  </si>
-  <si>
     <t>Certificate</t>
   </si>
   <si>
     <t>Check -june20</t>
-  </si>
-  <si>
-    <t>Testspacename</t>
-  </si>
-  <si>
-    <t>Testspacename3edit</t>
-  </si>
-  <si>
-    <t>EditDesign</t>
-  </si>
-  <si>
-    <t>11/02/2025 12:00 pm</t>
-  </si>
-  <si>
-    <t>11/02/2025 12:03 pm</t>
   </si>
 </sst>
 </file>
@@ -302,7 +284,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,10 +330,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -801,31 +802,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,127 +823,139 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +977,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -985,8 +989,11 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1344,33 +1351,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="24.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="20.4296875"/>
-    <col min="3" max="5" customWidth="true" style="6" width="13.0078125"/>
+    <col min="1" max="1" width="24.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.0078125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1379,10 +1386,10 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1391,10 +1398,10 @@
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1403,10 +1410,10 @@
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1568,8 +1575,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+    <row r="20" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1582,8 +1589,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1592,9 +1599,12 @@
       <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1604,14 +1614,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s" s="6">
+    <row r="23" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1634,24 +1644,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="9.71875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.71875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1668,29 +1678,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="18.859375"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.859375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1712,23 +1722,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1750,24 +1760,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="22.0078125"/>
-    <col min="2" max="2" customWidth="true" style="6" width="16.2890625"/>
+    <col min="1" max="1" width="22.0078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.2890625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1789,24 +1799,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1828,24 +1838,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1867,24 +1877,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1906,17 +1916,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1938,24 +1948,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1977,24 +1987,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2011,26 +2021,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="30.578125"/>
-    <col min="2" max="2" customWidth="true" style="11" width="12.4296875"/>
+    <col min="1" max="1" width="30.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,24 +2061,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2090,17 +2100,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2116,30 +2126,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2161,24 +2171,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="46.859375"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.859375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2189,108 +2199,128 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+    <row r="1" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2303,43 +2333,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="13.0078125"/>
-    <col min="2" max="2" customWidth="true" style="3" width="27.71875"/>
-    <col min="3" max="3" customWidth="true" style="6" width="12.4296875"/>
-    <col min="4" max="4" customWidth="true" style="6" width="25.2890625"/>
+    <col min="1" max="1" width="13.0078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.71875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.2890625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2361,36 +2391,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="11" width="11.578125"/>
-    <col min="3" max="3" customWidth="true" style="6" width="12.578125"/>
-    <col min="4" max="4" customWidth="true" style="6" width="27.0078125"/>
+    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.0078125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="B2" s="14"/>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2407,48 +2437,48 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" customWidth="true" style="3" width="18.2890625"/>
-    <col min="4" max="4" customWidth="true" style="3" width="12.2890625"/>
-    <col min="5" max="5" customWidth="true" style="8" width="30.1484375"/>
+    <col min="1" max="3" width="18.2890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.2890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1484375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>66</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2465,29 +2495,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="29.578125"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2509,24 +2539,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2548,24 +2578,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2587,44 +2617,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="3" width="12.4296875"/>
-    <col min="3" max="3" customWidth="true" style="3" width="17.578125"/>
-    <col min="4" max="4" customWidth="true" style="3" width="17.2890625"/>
-    <col min="5" max="5" customWidth="true" style="8" width="16.578125"/>
+    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="22"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>email</t>
   </si>
@@ -51,6 +51,9 @@
     <t>spacename</t>
   </si>
   <si>
+    <t>Newreg</t>
+  </si>
+  <si>
     <t>Test Space Creation</t>
   </si>
   <si>
@@ -69,7 +72,7 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>Check -june20</t>
+    <t>Test 123</t>
   </si>
   <si>
     <t>V3 Template</t>
@@ -231,7 +234,10 @@
     <t>BulkEdit</t>
   </si>
   <si>
-    <t>19/12/2024 04:57 pm</t>
+    <t>17/02/2025 09:40 am</t>
+  </si>
+  <si>
+    <t>TestCaseFailed</t>
   </si>
   <si>
     <t>CreateSchema</t>
@@ -240,9 +246,6 @@
     <t>12/02/2025 03:10 pm</t>
   </si>
   <si>
-    <t>TestCaseFailed</t>
-  </si>
-  <si>
     <t>EditSchema</t>
   </si>
   <si>
@@ -256,18 +259,6 @@
   </si>
   <si>
     <t>EditDesign</t>
-  </si>
-  <si>
-    <t>11/02/2025 12:03 pm</t>
-  </si>
-  <si>
-    <t>17/02/2025 09:32 am</t>
-  </si>
-  <si>
-    <t>17/02/2025 09:38 am</t>
-  </si>
-  <si>
-    <t>17/02/2025 09:40 am</t>
   </si>
   <si>
     <t>17/02/2025 10:18 am</t>
@@ -363,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -403,9 +394,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -727,319 +715,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="24.433571428571426"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="20.433571428571426"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.005"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.005"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.005"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
+    <col min="1" max="1" style="3" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="6"/>
     </row>
@@ -1059,8 +1047,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="9.719285714285713"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="58.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1076,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1095,8 +1083,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.862142857142857"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1112,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1131,8 +1119,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1148,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1167,8 +1155,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="22.005"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="16.290714285714284"/>
+    <col min="1" max="1" style="3" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1203,8 +1191,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="28.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1239,8 +1227,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1275,8 +1263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1311,7 +1299,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1340,8 +1328,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1376,8 +1364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1412,21 +1400,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="30.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,8 +1432,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1480,7 +1468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1509,8 +1497,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1541,15 +1529,15 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="46.86214285714286"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="46.86214285714286" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1610,7 +1598,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1639,7 +1627,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1664,11 +1652,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1697,10 +1685,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.005"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="14" width="27.719285714285714"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="25.290714285714284"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1711,10 +1699,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1722,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1747,21 +1735,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="11.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="27.005"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="27.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -1769,14 +1757,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="15"/>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1795,11 +1783,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="14" width="18.290714285714284"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="12.290714285714287"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="30.14785714285714"/>
+    <col min="1" max="1" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="30.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1810,30 +1798,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1852,8 +1840,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="29.576428571428572"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1869,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1888,8 +1876,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="50.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1905,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1924,8 +1912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="30.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1941,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1960,11 +1948,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="17.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="17.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="16.576428571428572"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1975,30 +1963,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="26"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>email</t>
   </si>
@@ -129,7 +129,7 @@
     <t>LoginTC</t>
   </si>
   <si>
-    <t>13/02/2025 10:59 am</t>
+    <t>17/02/2025 01:07 pm</t>
   </si>
   <si>
     <t>Passed</t>
@@ -156,7 +156,7 @@
     <t>Bulkupload</t>
   </si>
   <si>
-    <t>14/02/2025 04:06 pm</t>
+    <t>17/02/2025 04:31 pm</t>
   </si>
   <si>
     <t>CreateSpacewithCertificate</t>
@@ -243,9 +243,6 @@
     <t>CreateSchema</t>
   </si>
   <si>
-    <t>12/02/2025 03:10 pm</t>
-  </si>
-  <si>
     <t>EditSchema</t>
   </si>
   <si>
@@ -262,6 +259,12 @@
   </si>
   <si>
     <t>17/02/2025 10:18 am</t>
+  </si>
+  <si>
+    <t>IssueSingleRecord</t>
+  </si>
+  <si>
+    <t>17/02/2025 06:09 pm</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +329,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,6 +415,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +721,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,7 +993,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>30</v>
@@ -992,11 +1004,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>30</v>
@@ -1007,11 +1019,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>30</v>
@@ -1020,16 +1032,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,7 +1104,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1652,7 +1677,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -45,7 +45,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>sreepriya+test@dhiway.com</t>
+    <t>sreepriya+3021@dhiway.com</t>
   </si>
   <si>
     <t>spacename</t>
@@ -272,7 +272,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,12 +329,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,9 +409,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1035,7 @@
       <c r="E23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="6"/>
@@ -1104,7 +1095,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1677,11 +1668,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="36.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="26"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>email</t>
   </si>
@@ -144,7 +144,7 @@
     <t>CreateRecord</t>
   </si>
   <si>
-    <t>14/02/2025 03:55 pm</t>
+    <t>18/02/2025 02:00 pm</t>
   </si>
   <si>
     <t>CreateSpace</t>
@@ -258,13 +258,16 @@
     <t>EditDesign</t>
   </si>
   <si>
-    <t>17/02/2025 10:18 am</t>
+    <t>18/02/2025 02:38 pm</t>
   </si>
   <si>
     <t>IssueSingleRecord</t>
   </si>
   <si>
     <t>17/02/2025 06:09 pm</t>
+  </si>
+  <si>
+    <t>18/02/2025 02:46 pm</t>
   </si>
 </sst>
 </file>
@@ -718,11 +721,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="24.433571428571426"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="20.433571428571426"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.005"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.005"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.005"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -826,7 +829,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>30</v>
@@ -1063,8 +1066,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="58.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="58.57642857142857"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1099,8 +1102,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.862142857142857"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1135,8 +1138,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1171,8 +1174,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="22.005"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="16.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1207,8 +1210,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="28.719285714285714"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1243,8 +1246,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1279,8 +1282,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1315,7 +1318,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1344,8 +1347,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1380,8 +1383,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1416,8 +1419,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="30.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1448,8 +1451,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1484,7 +1487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1513,8 +1516,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1549,8 +1552,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="46.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="46.86214285714286"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1585,7 +1588,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1603,7 +1664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1614,65 +1675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="36.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1701,10 +1704,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.005"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="27.719285714285714"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="25.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1751,10 +1754,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="11.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="27.005"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1799,11 +1802,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="18.290714285714284"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="12.290714285714287"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="30.14785714285714"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1856,8 +1859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="29.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1892,8 +1895,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="50.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="50.29071428571429"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1924,12 +1927,12 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="30.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1964,11 +1967,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="17.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="17.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="16.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
   <si>
     <t>email</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>18/02/2025 02:46 pm</t>
+  </si>
+  <si>
+    <t>Archiveregistry</t>
+  </si>
+  <si>
+    <t>19/02/2025 10:43 am</t>
+  </si>
+  <si>
+    <t>19/02/2025 10:54 am</t>
+  </si>
+  <si>
+    <t>19/02/2025 10:55 am</t>
+  </si>
+  <si>
+    <t>19/02/2025 10:56 am</t>
   </si>
 </sst>
 </file>
@@ -715,7 +730,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,7 +766,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>30</v>
@@ -1002,7 +1017,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>30</v>
@@ -1049,6 +1064,17 @@
         <v>30</v>
       </c>
       <c r="E24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s" s="7">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -40,12 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>sreepriya+3021@dhiway.com</t>
+    <t>sreepriya+3022@dhiway.com</t>
   </si>
   <si>
     <t>spacename</t>
@@ -72,13 +72,13 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>Test 123</t>
+    <t>Certificate Issuance</t>
   </si>
   <si>
     <t>V3 Template</t>
   </si>
   <si>
-    <t>sept17-2-sree-afternoon</t>
+    <t>test design1</t>
   </si>
   <si>
     <t>fullname</t>
@@ -96,7 +96,7 @@
     <t>Testorg-Sree</t>
   </si>
   <si>
-    <t>sreepriya++test88@dhiway.com</t>
+    <t>sreepriya++test808@dhiway.com</t>
   </si>
   <si>
     <t>Name</t>
@@ -265,24 +265,6 @@
   </si>
   <si>
     <t>17/02/2025 06:09 pm</t>
-  </si>
-  <si>
-    <t>18/02/2025 02:46 pm</t>
-  </si>
-  <si>
-    <t>Archiveregistry</t>
-  </si>
-  <si>
-    <t>19/02/2025 10:43 am</t>
-  </si>
-  <si>
-    <t>19/02/2025 10:54 am</t>
-  </si>
-  <si>
-    <t>19/02/2025 10:55 am</t>
-  </si>
-  <si>
-    <t>19/02/2025 10:56 am</t>
   </si>
 </sst>
 </file>
@@ -730,17 +712,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="24.433571428571426"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="20.433571428571426"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.005"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.005"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.005"/>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -766,7 +748,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>30</v>
@@ -844,7 +826,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>30</v>
@@ -1017,7 +999,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>30</v>
@@ -1065,17 +1047,6 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1092,8 +1063,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="58.57642857142857"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="58.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1128,8 +1099,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.862142857142857"/>
+    <col min="1" max="1" style="3" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="18.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1164,8 +1135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="33.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1200,8 +1171,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="22.005"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="16.290714285714284"/>
+    <col min="1" max="1" style="3" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1236,8 +1207,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="28.719285714285714"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="28.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1272,8 +1243,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1308,8 +1279,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1344,7 +1315,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1373,8 +1344,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1409,8 +1380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1445,8 +1416,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="30.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1477,8 +1448,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1513,7 +1484,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1542,8 +1513,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1578,8 +1549,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="46.86214285714286"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="46.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1614,7 +1585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1643,7 +1614,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1672,7 +1643,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="1" max="1" style="3" width="55.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1701,7 +1672,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="36.43357142857143"/>
+    <col min="1" max="1" style="3" width="36.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1730,10 +1701,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.005"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="27.719285714285714"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="25.290714285714284"/>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1780,10 +1751,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="11.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="27.005"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="27.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1828,11 +1799,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="18.290714285714284"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="12.290714285714287"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="30.14785714285714"/>
+    <col min="1" max="1" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="30.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1885,8 +1856,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="29.576428571428572"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1921,8 +1892,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="50.29071428571429"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="50.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1953,12 +1924,12 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="30.290714285714284"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="30.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1993,11 +1964,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="17.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="17.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="16.576428571428572"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Testcases"/>
@@ -714,7 +714,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -911,7 +911,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -937,7 +937,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -978,7 +978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -1795,7 +1795,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>email</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>17/02/2025 06:09 pm</t>
+  </si>
+  <si>
+    <t>21/02/2025 10:20 am</t>
   </si>
 </sst>
 </file>
@@ -718,11 +721,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="24.433571428571426"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="20.433571428571426"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="13.005"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="13.005"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.005"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -748,7 +751,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>30</v>
@@ -984,7 +987,7 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>30</v>
@@ -1063,8 +1066,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="58.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="58.57642857142857"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1099,8 +1102,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="33.57642857142857"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.862142857142857"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1135,8 +1138,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="34.14785714285715"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="33.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1171,8 +1174,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="22.005"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="16.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1207,8 +1210,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="28.719285714285714"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1243,8 +1246,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1279,8 +1282,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1315,7 +1318,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1344,8 +1347,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1380,8 +1383,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1416,8 +1419,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="30.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1448,8 +1451,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1484,7 +1487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1513,8 +1516,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1549,8 +1552,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="46.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="46.86214285714286"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1585,7 +1588,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1614,7 +1617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1643,7 +1646,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="55.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="55.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1672,7 +1675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="36.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="36.43357142857143"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1701,10 +1704,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="13.005"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="27.719285714285714"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="25.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1751,10 +1754,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="11.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="12.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="27.005"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1799,11 +1802,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="18.290714285714284"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="18.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="12.290714285714287"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="30.14785714285714"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1856,8 +1859,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="29.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1892,8 +1895,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="50.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="50.29071428571429"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1928,8 +1931,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="30.290714285714284"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1964,11 +1967,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="12.43357142857143"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="17.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="17.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="11" width="16.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>27/02/2025 10:14 am</t>
+  </si>
+  <si>
+    <t>04/03/2025 12:24 pm</t>
+  </si>
+  <si>
+    <t>04/03/2025 12:31 pm</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1583,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -1663,7 +1669,7 @@
         <v>75</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>7</v>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="90">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -303,6 +303,27 @@
   </si>
   <si>
     <t>04/03/2025 12:31 pm</t>
+  </si>
+  <si>
+    <t>04/03/2025 01:57 pm</t>
+  </si>
+  <si>
+    <t>04/03/2025 01:58 pm</t>
+  </si>
+  <si>
+    <t>Archiveregistry</t>
+  </si>
+  <si>
+    <t>04/03/2025 02:01 pm</t>
+  </si>
+  <si>
+    <t>04/03/2025 02:40 pm</t>
+  </si>
+  <si>
+    <t>04/03/2025 02:41 pm</t>
+  </si>
+  <si>
+    <t>04/03/2025 02:43 pm</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,7 +1425,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1495,7 +1516,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1608,7 +1629,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -1622,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -1672,6 +1693,17 @@
         <v>81</v>
       </c>
       <c r="D25" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s" s="2">
         <v>7</v>
       </c>
     </row>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="94">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>04/03/2025 02:43 pm</t>
+  </si>
+  <si>
+    <t>05/03/2025 01:09 pm</t>
+  </si>
+  <si>
+    <t>05/03/2025 02:29 pm</t>
+  </si>
+  <si>
+    <t>05/03/2025 02:32 pm</t>
+  </si>
+  <si>
+    <t>05/03/2025 02:36 pm</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1528,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1701,7 +1713,7 @@
         <v>85</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>7</v>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27860" windowHeight="12420" firstSheet="22" activeTab="27"/>
+    <workbookView windowWidth="27440" windowHeight="12420" firstSheet="25" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="CreateDesign" sheetId="26" r:id="rId26"/>
     <sheet name="EditDesign" sheetId="27" r:id="rId27"/>
     <sheet name="DeleteSingleRecord" sheetId="28" r:id="rId28"/>
+    <sheet name="NewDownloadpdfwithoutbckgndzip" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -89,7 +90,7 @@
     <t>CreateRecord</t>
   </si>
   <si>
-    <t>18/02/2025 02:00 pm</t>
+    <t>27/02/2025 10:14 am</t>
   </si>
   <si>
     <t>CreateSpace</t>
@@ -173,7 +174,7 @@
     <t>ReshareRecord</t>
   </si>
   <si>
-    <t>16/12/2024 11:51 am</t>
+    <t>04/03/2025 12:31 pm</t>
   </si>
   <si>
     <t>BulkEdit</t>
@@ -212,6 +213,12 @@
     <t>17/02/2025 06:09 pm</t>
   </si>
   <si>
+    <t>DeleteSingleRecord</t>
+  </si>
+  <si>
+    <t>04/03/2025 12:24 pm</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -281,61 +288,19 @@
     <t>Newreg</t>
   </si>
   <si>
-    <t>DeleteSingleRecord</t>
-  </si>
-  <si>
-    <t>24/02/2025 04:49 pm</t>
-  </si>
-  <si>
-    <t>24/02/2025 04:52 pm</t>
-  </si>
-  <si>
-    <t>25/02/2025 12:49 pm</t>
-  </si>
-  <si>
-    <t>25/02/2025 12:51 pm</t>
-  </si>
-  <si>
-    <t>27/02/2025 10:14 am</t>
-  </si>
-  <si>
-    <t>04/03/2025 12:24 pm</t>
-  </si>
-  <si>
-    <t>04/03/2025 12:31 pm</t>
-  </si>
-  <si>
-    <t>04/03/2025 01:57 pm</t>
-  </si>
-  <si>
-    <t>04/03/2025 01:58 pm</t>
-  </si>
-  <si>
-    <t>Archiveregistry</t>
-  </si>
-  <si>
-    <t>04/03/2025 02:01 pm</t>
-  </si>
-  <si>
-    <t>04/03/2025 02:40 pm</t>
-  </si>
-  <si>
-    <t>04/03/2025 02:41 pm</t>
-  </si>
-  <si>
-    <t>04/03/2025 02:43 pm</t>
-  </si>
-  <si>
-    <t>05/03/2025 01:09 pm</t>
-  </si>
-  <si>
-    <t>05/03/2025 02:29 pm</t>
-  </si>
-  <si>
-    <t>05/03/2025 02:32 pm</t>
-  </si>
-  <si>
-    <t>05/03/2025 02:36 pm</t>
+    <t>NewDownloadpdfwithoutbckgndzip</t>
+  </si>
+  <si>
+    <t>06/03/2025 02:11 pm</t>
+  </si>
+  <si>
+    <t>06/03/2025 02:12 pm</t>
+  </si>
+  <si>
+    <t>06/03/2025 02:13 pm</t>
+  </si>
+  <si>
+    <t>06/03/2025 02:15 pm</t>
   </si>
 </sst>
 </file>
@@ -348,7 +313,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,13 +369,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -860,148 +818,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,7 +1395,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1461,7 +1419,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1528,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -1616,7 +1574,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -1641,7 +1599,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -1655,7 +1613,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -1697,23 +1655,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s" s="2">
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>7</v>
@@ -1744,18 +1702,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1783,18 +1741,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1822,18 +1780,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1861,18 +1819,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1900,18 +1858,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1939,18 +1897,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1978,18 +1936,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2016,12 +1974,12 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +1996,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2049,18 +2007,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2088,18 +2046,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2127,13 +2085,13 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16"/>
     </row>
@@ -2162,18 +2120,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2200,12 +2158,12 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2233,18 +2191,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2272,18 +2230,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2310,12 +2268,12 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2342,12 +2300,12 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2374,12 +2332,12 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2406,12 +2364,12 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2425,6 +2383,39 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
@@ -2433,18 +2424,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2474,30 +2465,30 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2527,28 +2518,28 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2579,36 +2570,36 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2636,18 +2627,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2675,18 +2666,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2714,18 +2705,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2755,36 +2746,36 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27440" windowHeight="12420" firstSheet="25" activeTab="28"/>
+    <workbookView windowWidth="27440" windowHeight="12420" firstSheet="27" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="EditDesign" sheetId="27" r:id="rId27"/>
     <sheet name="DeleteSingleRecord" sheetId="28" r:id="rId28"/>
     <sheet name="NewDownloadpdfwithoutbckgndzip" sheetId="29" r:id="rId29"/>
+    <sheet name="NewDownloadwithPng" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet2" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -114,7 +116,7 @@
     <t>IssueAll</t>
   </si>
   <si>
-    <t>21/11/2024 11:10 am</t>
+    <t>07/03/2025 11:11 am</t>
   </si>
   <si>
     <t>RevokeSingleRecord</t>
@@ -162,7 +164,7 @@
     <t>NewDownloadpdfwithbkgndIssued</t>
   </si>
   <si>
-    <t>24/02/2025 04:22 pm</t>
+    <t>18/03/2025 12:58 pm</t>
   </si>
   <si>
     <t>Activitylog</t>
@@ -204,7 +206,7 @@
     <t>EditDesign</t>
   </si>
   <si>
-    <t>18/02/2025 02:38 pm</t>
+    <t>07/03/2025 11:17 am</t>
   </si>
   <si>
     <t>IssueSingleRecord</t>
@@ -219,6 +221,12 @@
     <t>04/03/2025 12:24 pm</t>
   </si>
   <si>
+    <t>NewDownloadpdfwithoutbckgndzip</t>
+  </si>
+  <si>
+    <t>06/03/2025 02:15 pm</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -288,19 +296,10 @@
     <t>Newreg</t>
   </si>
   <si>
-    <t>NewDownloadpdfwithoutbckgndzip</t>
-  </si>
-  <si>
-    <t>06/03/2025 02:11 pm</t>
-  </si>
-  <si>
-    <t>06/03/2025 02:12 pm</t>
-  </si>
-  <si>
-    <t>06/03/2025 02:13 pm</t>
-  </si>
-  <si>
-    <t>06/03/2025 02:15 pm</t>
+    <t>NewDownloadwithPng</t>
+  </si>
+  <si>
+    <t>18/03/2025 01:18 pm</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1358,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1666,14 +1665,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s" s="2">
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1702,18 +1712,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1741,18 +1751,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1780,18 +1790,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1819,18 +1829,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1858,18 +1868,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1897,18 +1907,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1936,18 +1946,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1974,12 +1984,12 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2007,18 +2017,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2046,18 +2056,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2085,13 +2095,13 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="16"/>
     </row>
@@ -2120,18 +2130,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2158,12 +2168,12 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2191,18 +2201,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2230,18 +2240,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2268,12 +2278,12 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2300,12 +2310,12 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2332,12 +2342,12 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2364,12 +2374,12 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2391,18 +2401,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2426,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2424,18 +2434,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2465,34 +2475,83 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2518,28 +2577,28 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2570,36 +2629,36 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2627,18 +2686,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2666,18 +2725,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2705,18 +2764,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2746,36 +2805,36 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>18/03/2025 01:18 pm</t>
+  </si>
+  <si>
+    <t>18/03/2025 02:08 pm</t>
+  </si>
+  <si>
+    <t>18/03/2025 02:09 pm</t>
+  </si>
+  <si>
+    <t>18/03/2025 02:10 pm</t>
+  </si>
+  <si>
+    <t>19/03/2025 10:49 am</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1406,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1584,7 +1596,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -1612,7 +1624,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -1637,7 +1649,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="93">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -312,6 +312,30 @@
   </si>
   <si>
     <t>19/03/2025 10:49 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:39 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:40 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:41 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:43 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:44 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:45 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:46 am</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:48 am</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1430,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -1596,7 +1620,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -1624,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>

--- a/TestData/Testexcel.xlsx
+++ b/TestData/Testexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27440" windowHeight="12420" firstSheet="27" activeTab="30"/>
+    <workbookView windowWidth="29920" windowHeight="12380" firstSheet="28" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,8 @@
     <sheet name="DeleteSingleRecord" sheetId="28" r:id="rId28"/>
     <sheet name="NewDownloadpdfwithoutbckgndzip" sheetId="29" r:id="rId29"/>
     <sheet name="NewDownloadwithPng" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet2" sheetId="31" r:id="rId31"/>
+    <sheet name="Activitiestab" sheetId="31" r:id="rId31"/>
+    <sheet name="CreateDraftDesign" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -77,124 +78,127 @@
     <t>LoginTC</t>
   </si>
   <si>
+    <t>03/04/2025 10:45 am</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>RegisterAccount</t>
+  </si>
+  <si>
+    <t>19/08/2024 06:48 pm</t>
+  </si>
+  <si>
+    <t>CreateRecord</t>
+  </si>
+  <si>
+    <t>07/04/2025 05:58 pm</t>
+  </si>
+  <si>
+    <t>CreateSpace</t>
+  </si>
+  <si>
+    <t>28/11/2024 05:42 pm</t>
+  </si>
+  <si>
+    <t>Bulkupload</t>
+  </si>
+  <si>
+    <t>17/02/2025 04:31 pm</t>
+  </si>
+  <si>
+    <t>CreateSpacewithCertificate</t>
+  </si>
+  <si>
+    <t>07/10/2024 12:51 pm</t>
+  </si>
+  <si>
+    <t>IssueAll</t>
+  </si>
+  <si>
+    <t>07/03/2025 11:11 am</t>
+  </si>
+  <si>
+    <t>RevokeSingleRecord</t>
+  </si>
+  <si>
+    <t>09/10/2024 01:44 pm</t>
+  </si>
+  <si>
+    <t>Editregistry</t>
+  </si>
+  <si>
+    <t>14/02/2025 03:41 pm</t>
+  </si>
+  <si>
+    <t>Bulkdownload</t>
+  </si>
+  <si>
+    <t>24/10/2024 10:21 am</t>
+  </si>
+  <si>
+    <t>Bulkdownloadwithoutbkgd</t>
+  </si>
+  <si>
+    <t>25/10/2024 12:09 pm</t>
+  </si>
+  <si>
+    <t>Bulkhashmarkpng</t>
+  </si>
+  <si>
+    <t>05/11/2024 01:44 pm</t>
+  </si>
+  <si>
+    <t>LogoutTC</t>
+  </si>
+  <si>
+    <t>10/12/2024 01:18 pm</t>
+  </si>
+  <si>
+    <t>Bulkhashmarksvg</t>
+  </si>
+  <si>
+    <t>20/11/2024 02:44 pm</t>
+  </si>
+  <si>
+    <t>NewDownloadpdfwithbkgndIssued</t>
+  </si>
+  <si>
+    <t>18/03/2025 12:58 pm</t>
+  </si>
+  <si>
+    <t>Activitylog</t>
+  </si>
+  <si>
+    <t>03/12/2024 12:09 pm</t>
+  </si>
+  <si>
+    <t>ReshareRecord</t>
+  </si>
+  <si>
+    <t>04/03/2025 12:31 pm</t>
+  </si>
+  <si>
+    <t>BulkEdit</t>
+  </si>
+  <si>
+    <t>03/04/2025 10:48 am</t>
+  </si>
+  <si>
+    <t>TestCaseFailed</t>
+  </si>
+  <si>
+    <t>CreateSchema</t>
+  </si>
+  <si>
     <t>21/02/2025 10:20 am</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>RegisterAccount</t>
-  </si>
-  <si>
-    <t>19/08/2024 06:48 pm</t>
-  </si>
-  <si>
-    <t>CreateRecord</t>
-  </si>
-  <si>
-    <t>27/02/2025 10:14 am</t>
-  </si>
-  <si>
-    <t>CreateSpace</t>
-  </si>
-  <si>
-    <t>28/11/2024 05:42 pm</t>
-  </si>
-  <si>
-    <t>Bulkupload</t>
-  </si>
-  <si>
-    <t>17/02/2025 04:31 pm</t>
-  </si>
-  <si>
-    <t>CreateSpacewithCertificate</t>
-  </si>
-  <si>
-    <t>07/10/2024 12:51 pm</t>
-  </si>
-  <si>
-    <t>IssueAll</t>
-  </si>
-  <si>
-    <t>07/03/2025 11:11 am</t>
-  </si>
-  <si>
-    <t>RevokeSingleRecord</t>
-  </si>
-  <si>
-    <t>09/10/2024 01:44 pm</t>
-  </si>
-  <si>
-    <t>Editregistry</t>
-  </si>
-  <si>
-    <t>14/02/2025 03:41 pm</t>
-  </si>
-  <si>
-    <t>Bulkdownload</t>
-  </si>
-  <si>
-    <t>24/10/2024 10:21 am</t>
-  </si>
-  <si>
-    <t>Bulkdownloadwithoutbkgd</t>
-  </si>
-  <si>
-    <t>25/10/2024 12:09 pm</t>
-  </si>
-  <si>
-    <t>Bulkhashmarkpng</t>
-  </si>
-  <si>
-    <t>05/11/2024 01:44 pm</t>
-  </si>
-  <si>
-    <t>LogoutTC</t>
-  </si>
-  <si>
-    <t>10/12/2024 01:18 pm</t>
-  </si>
-  <si>
-    <t>Bulkhashmarksvg</t>
-  </si>
-  <si>
-    <t>20/11/2024 02:44 pm</t>
-  </si>
-  <si>
-    <t>NewDownloadpdfwithbkgndIssued</t>
-  </si>
-  <si>
-    <t>18/03/2025 12:58 pm</t>
-  </si>
-  <si>
-    <t>Activitylog</t>
-  </si>
-  <si>
-    <t>03/12/2024 12:09 pm</t>
-  </si>
-  <si>
-    <t>ReshareRecord</t>
-  </si>
-  <si>
-    <t>04/03/2025 12:31 pm</t>
-  </si>
-  <si>
-    <t>BulkEdit</t>
-  </si>
-  <si>
-    <t>17/02/2025 09:40 am</t>
-  </si>
-  <si>
-    <t>TestCaseFailed</t>
-  </si>
-  <si>
-    <t>CreateSchema</t>
-  </si>
-  <si>
     <t>EditSchema</t>
   </si>
   <si>
-    <t>13/02/2025 11:00 am</t>
+    <t>03/04/2025 10:46 am</t>
   </si>
   <si>
     <t>CreateDesign</t>
@@ -206,7 +210,7 @@
     <t>EditDesign</t>
   </si>
   <si>
-    <t>07/03/2025 11:17 am</t>
+    <t>19/03/2025 10:49 am</t>
   </si>
   <si>
     <t>IssueSingleRecord</t>
@@ -227,6 +231,18 @@
     <t>06/03/2025 02:15 pm</t>
   </si>
   <si>
+    <t>NewDownloadwithPng</t>
+  </si>
+  <si>
+    <t>18/03/2025 01:18 pm</t>
+  </si>
+  <si>
+    <t>Activitiestab</t>
+  </si>
+  <si>
+    <t>09/05/2025 10:51 am</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -296,46 +312,10 @@
     <t>Newreg</t>
   </si>
   <si>
-    <t>NewDownloadwithPng</t>
-  </si>
-  <si>
-    <t>18/03/2025 01:18 pm</t>
-  </si>
-  <si>
-    <t>18/03/2025 02:08 pm</t>
-  </si>
-  <si>
-    <t>18/03/2025 02:09 pm</t>
-  </si>
-  <si>
-    <t>18/03/2025 02:10 pm</t>
-  </si>
-  <si>
-    <t>19/03/2025 10:49 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:39 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:40 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:41 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:43 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:44 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:45 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:46 am</t>
-  </si>
-  <si>
-    <t>03/04/2025 10:48 am</t>
+    <t>10/06/2025 10:01 am</t>
+  </si>
+  <si>
+    <t>10/06/2025 11:02 am</t>
   </si>
 </sst>
 </file>
@@ -376,6 +356,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -391,12 +377,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1003,35 +983,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1394,7 +1374,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
@@ -1402,9 +1382,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="20.4296875"/>
-    <col min="3" max="5" customWidth="true" style="2" width="13.0078125"/>
+    <col min="1" max="1" customWidth="true" style="6" width="24.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="20.4296875"/>
+    <col min="3" max="5" customWidth="true" style="4" width="13.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
@@ -1429,10 +1409,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1441,10 +1421,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1453,10 +1433,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1465,261 +1445,272 @@
         <v>12</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s" s="2">
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1742,24 +1733,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="58.578125"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="58.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1781,24 +1772,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="33.578125"/>
-    <col min="2" max="2" customWidth="true" style="4" width="18.859375"/>
+    <col min="1" max="1" customWidth="true" style="6" width="33.578125"/>
+    <col min="2" max="2" customWidth="true" style="6" width="18.859375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1820,24 +1811,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="34.1484375"/>
-    <col min="2" max="2" customWidth="true" style="4" width="33.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="34.1484375"/>
+    <col min="2" max="2" customWidth="true" style="6" width="33.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1859,24 +1850,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="22.0078125"/>
-    <col min="2" max="2" customWidth="true" style="2" width="16.2890625"/>
+    <col min="1" max="1" customWidth="true" style="6" width="22.0078125"/>
+    <col min="2" max="2" customWidth="true" style="4" width="16.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1898,24 +1889,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="28.71875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="28.71875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1937,24 +1928,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1976,24 +1967,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2015,17 +2006,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2047,24 +2038,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2086,24 +2077,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2120,24 +2111,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="30.578125"/>
+    <col min="1" max="1" customWidth="true" style="6" width="30.578125"/>
     <col min="2" max="2" customWidth="true" style="13" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="16"/>
     </row>
@@ -2160,24 +2151,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2199,17 +2190,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2231,24 +2222,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2270,24 +2261,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="46.859375"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="6" width="46.859375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2309,17 +2300,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2341,17 +2332,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2368,22 +2359,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="55.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="55.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2405,17 +2396,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="36.4296875"/>
+    <col min="1" max="1" customWidth="true" style="6" width="36.4296875"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2437,18 +2428,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2467,21 +2458,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.96875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2498,43 +2492,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="13.0078125"/>
-    <col min="2" max="2" customWidth="true" style="8" width="27.71875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="12.4296875"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.2890625"/>
+    <col min="1" max="1" customWidth="true" style="6" width="13.0078125"/>
+    <col min="2" max="2" customWidth="true" style="10" width="27.71875"/>
+    <col min="3" max="3" customWidth="true" style="4" width="12.4296875"/>
+    <col min="4" max="4" customWidth="true" style="4" width="25.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2556,18 +2550,18 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2579,14 +2573,70 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2605,36 +2655,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="12.4296875"/>
+    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
     <col min="2" max="2" customWidth="true" style="13" width="11.578125"/>
-    <col min="3" max="3" customWidth="true" style="2" width="12.578125"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.0078125"/>
+    <col min="3" max="3" customWidth="true" style="4" width="12.578125"/>
+    <col min="4" max="4" customWidth="true" style="4" width="27.0078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
+      <c r="A1" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2651,50 +2701,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="18.2890625"/>
-    <col min="2" max="2" customWidth="true" style="8" width="18.2890625"/>
-    <col min="3" max="3" customWidth="true" style="4" width="18.2890625"/>
-    <col min="4" max="4" customWidth="true" style="4" width="12.2890625"/>
-    <col min="5" max="5" customWidth="true" style="8" width="30.1484375"/>
+    <col min="1" max="1" customWidth="true" style="6" width="23.046875"/>
+    <col min="2" max="2" customWidth="true" style="10" width="29.8125"/>
+    <col min="3" max="3" customWidth="true" style="6" width="18.2890625"/>
+    <col min="4" max="4" customWidth="true" style="6" width="12.2890625"/>
+    <col min="5" max="5" customWidth="true" style="10" width="30.1484375"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>75</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2716,24 +2766,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="29.578125"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="29.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2750,29 +2800,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="$A1:$XFD1 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="50.2890625"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="50.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2794,24 +2844,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="12.4296875"/>
-    <col min="2" max="2" customWidth="true" style="2" width="30.2890625"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.4296875"/>
+    <col min="2" max="2" customWidth="true" style="4" width="30.2890625"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2833,44 +2883,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="4" width="12.4296875"/>
-    <col min="3" max="3" customWidth="true" style="4" width="17.578125"/>
-    <col min="4" max="4" customWidth="true" style="4" width="17.2890625"/>
-    <col min="5" max="5" customWidth="true" style="8" width="16.578125"/>
+    <col min="1" max="2" customWidth="true" style="6" width="12.4296875"/>
+    <col min="3" max="3" customWidth="true" style="6" width="17.578125"/>
+    <col min="4" max="4" customWidth="true" style="6" width="17.2890625"/>
+    <col min="5" max="5" customWidth="true" style="10" width="16.578125"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>77</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
